--- a/scraper/top_remaining_spreadsheets_states/top_remaining_IN.xlsx
+++ b/scraper/top_remaining_spreadsheets_states/top_remaining_IN.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86">
   <si>
     <t>STATE</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">Triple Tripler           </t>
   </si>
   <si>
-    <t>2019-03-07</t>
+    <t>2019-03-12</t>
   </si>
   <si>
     <t>WILD 1s</t>
@@ -53,33 +53,33 @@
     <t xml:space="preserve">Aces High                </t>
   </si>
   <si>
+    <t xml:space="preserve">Hit 6                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucky Tripler            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">$5,000 Jackpot           </t>
+  </si>
+  <si>
     <t>NEON 9s</t>
   </si>
   <si>
-    <t xml:space="preserve">Hit 6                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lucky Tripler            </t>
-  </si>
-  <si>
     <t>FILL'ER UP!</t>
   </si>
   <si>
-    <t xml:space="preserve">$5,000 Jackpot           </t>
-  </si>
-  <si>
     <t xml:space="preserve">Hoosier Dreams           </t>
   </si>
   <si>
+    <t>SET FOR LIFE</t>
+  </si>
+  <si>
     <t>FESTIVE $50s</t>
   </si>
   <si>
     <t>2019-02-21</t>
   </si>
   <si>
-    <t>SET FOR LIFE</t>
-  </si>
-  <si>
     <t>$2.00 Games</t>
   </si>
   <si>
@@ -92,30 +92,30 @@
     <t xml:space="preserve">$10,000 Bonus Cash       </t>
   </si>
   <si>
+    <t xml:space="preserve">$25,000 Jackpot          </t>
+  </si>
+  <si>
     <t xml:space="preserve">Bingo Frenzy             </t>
   </si>
   <si>
-    <t xml:space="preserve">$25,000 Jackpot          </t>
-  </si>
-  <si>
     <t xml:space="preserve">Mega Money               </t>
   </si>
   <si>
+    <t xml:space="preserve">Cherry Twist             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gold Rush Doubler        </t>
+  </si>
+  <si>
+    <t>WIN IT ALL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White Ice                </t>
+  </si>
+  <si>
     <t>HOLIDAY $100s</t>
   </si>
   <si>
-    <t xml:space="preserve">Cherry Twist             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gold Rush Doubler        </t>
-  </si>
-  <si>
-    <t>WIN IT ALL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">White Ice                </t>
-  </si>
-  <si>
     <t>$3.00 Games</t>
   </si>
   <si>
@@ -146,12 +146,12 @@
     <t xml:space="preserve">7                        </t>
   </si>
   <si>
+    <t xml:space="preserve">Gold Series              </t>
+  </si>
+  <si>
     <t xml:space="preserve">Stacks Of Ca$H           </t>
   </si>
   <si>
-    <t xml:space="preserve">Gold Series              </t>
-  </si>
-  <si>
     <t xml:space="preserve">Wild Cherry Crossword 5X </t>
   </si>
   <si>
@@ -167,6 +167,9 @@
     <t xml:space="preserve">Money Multiplier         </t>
   </si>
   <si>
+    <t>2019-03-11</t>
+  </si>
+  <si>
     <t xml:space="preserve">$5,000 Bonus             </t>
   </si>
   <si>
@@ -185,24 +188,18 @@
     <t xml:space="preserve">$175,000 Jackpot         </t>
   </si>
   <si>
-    <t xml:space="preserve">20X The Cash             </t>
-  </si>
-  <si>
-    <t>2019-02-05</t>
-  </si>
-  <si>
     <t>$10.00 Games</t>
   </si>
   <si>
     <t xml:space="preserve">50X The Cash             </t>
   </si>
   <si>
+    <t>Fatter Wallet</t>
+  </si>
+  <si>
     <t>$120M Cash Spectacular</t>
   </si>
   <si>
-    <t>Fatter Wallet</t>
-  </si>
-  <si>
     <t xml:space="preserve">$500,000 Jackpot         </t>
   </si>
   <si>
@@ -212,18 +209,15 @@
     <t xml:space="preserve">Loaded                   </t>
   </si>
   <si>
-    <t>2019-03-06</t>
-  </si>
-  <si>
     <t xml:space="preserve">Indiana Cash Blowout     </t>
   </si>
   <si>
+    <t xml:space="preserve">Mega Crossword           </t>
+  </si>
+  <si>
     <t xml:space="preserve">Golden Ticket            </t>
   </si>
   <si>
-    <t xml:space="preserve">Mega Crossword           </t>
-  </si>
-  <si>
     <t>$20.00 Games</t>
   </si>
   <si>
@@ -236,10 +230,10 @@
     <t xml:space="preserve">100X The Cash            </t>
   </si>
   <si>
+    <t xml:space="preserve">$1,000,000 Jackpot       </t>
+  </si>
+  <si>
     <t xml:space="preserve">Cash Money               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1,000,000 Jackpot       </t>
   </si>
   <si>
     <t>$100 Or $200 Cash Blowout</t>
@@ -617,7 +611,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -716,10 +710,10 @@
         <v>12</v>
       </c>
       <c r="D5">
-        <v>2301</v>
+        <v>2280</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -736,10 +730,10 @@
         <v>13</v>
       </c>
       <c r="D6">
-        <v>2280</v>
+        <v>2310</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -756,10 +750,10 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>2310</v>
+        <v>2305</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
@@ -776,7 +770,7 @@
         <v>15</v>
       </c>
       <c r="D8">
-        <v>2264</v>
+        <v>2301</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -796,10 +790,10 @@
         <v>16</v>
       </c>
       <c r="D9">
-        <v>2305</v>
+        <v>2264</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -836,13 +830,13 @@
         <v>18</v>
       </c>
       <c r="D11">
-        <v>2291</v>
+        <v>2223</v>
       </c>
       <c r="E11">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -853,16 +847,16 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12">
+        <v>2291</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
         <v>20</v>
-      </c>
-      <c r="D12">
-        <v>2223</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -936,10 +930,10 @@
         <v>25</v>
       </c>
       <c r="D16">
-        <v>2164</v>
+        <v>2306</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F16" t="s">
         <v>9</v>
@@ -956,10 +950,10 @@
         <v>26</v>
       </c>
       <c r="D17">
-        <v>2306</v>
+        <v>2164</v>
       </c>
       <c r="E17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
@@ -979,7 +973,7 @@
         <v>2302</v>
       </c>
       <c r="E18">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="F18" t="s">
         <v>9</v>
@@ -993,7 +987,7 @@
         <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D19">
         <v>2224</v>
@@ -1016,13 +1010,13 @@
         <v>28</v>
       </c>
       <c r="D20">
-        <v>2292</v>
+        <v>2311</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1036,10 +1030,10 @@
         <v>29</v>
       </c>
       <c r="D21">
-        <v>2311</v>
+        <v>2276</v>
       </c>
       <c r="E21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
@@ -1056,7 +1050,7 @@
         <v>30</v>
       </c>
       <c r="D22">
-        <v>2276</v>
+        <v>2285</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1076,7 +1070,7 @@
         <v>31</v>
       </c>
       <c r="D23">
-        <v>2285</v>
+        <v>2297</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1096,13 +1090,13 @@
         <v>32</v>
       </c>
       <c r="D24">
-        <v>2297</v>
+        <v>2292</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1276,10 +1270,10 @@
         <v>43</v>
       </c>
       <c r="D33">
-        <v>2221</v>
+        <v>2293</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33" t="s">
         <v>9</v>
@@ -1296,10 +1290,10 @@
         <v>44</v>
       </c>
       <c r="D34">
-        <v>2293</v>
+        <v>2221</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34" t="s">
         <v>9</v>
@@ -1402,7 +1396,7 @@
         <v>4</v>
       </c>
       <c r="F39" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1413,13 +1407,13 @@
         <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D40">
         <v>2304</v>
       </c>
       <c r="E40">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F40" t="s">
         <v>9</v>
@@ -1433,7 +1427,7 @@
         <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D41">
         <v>2282</v>
@@ -1453,7 +1447,7 @@
         <v>39</v>
       </c>
       <c r="C42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D42">
         <v>2307</v>
@@ -1473,7 +1467,7 @@
         <v>39</v>
       </c>
       <c r="C43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D43">
         <v>2273</v>
@@ -1493,7 +1487,7 @@
         <v>39</v>
       </c>
       <c r="C44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D44">
         <v>2271</v>
@@ -1513,7 +1507,7 @@
         <v>39</v>
       </c>
       <c r="C45" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D45">
         <v>2225</v>
@@ -1533,7 +1527,7 @@
         <v>39</v>
       </c>
       <c r="C46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D46">
         <v>2262</v>
@@ -1542,7 +1536,7 @@
         <v>2</v>
       </c>
       <c r="F46" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1550,19 +1544,19 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="C47" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D47">
-        <v>2251</v>
+        <v>2252</v>
       </c>
       <c r="E47">
         <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1570,16 +1564,16 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C48" t="s">
         <v>59</v>
       </c>
       <c r="D48">
-        <v>2252</v>
+        <v>2209</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F48" t="s">
         <v>9</v>
@@ -1590,7 +1584,7 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C49" t="s">
         <v>60</v>
@@ -1599,7 +1593,7 @@
         <v>2027</v>
       </c>
       <c r="E49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F49" t="s">
         <v>9</v>
@@ -1610,16 +1604,16 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C50" t="s">
         <v>61</v>
       </c>
       <c r="D50">
-        <v>2209</v>
+        <v>2308</v>
       </c>
       <c r="E50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F50" t="s">
         <v>9</v>
@@ -1630,16 +1624,16 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C51" t="s">
         <v>62</v>
       </c>
       <c r="D51">
-        <v>2308</v>
+        <v>2279</v>
       </c>
       <c r="E51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F51" t="s">
         <v>9</v>
@@ -1650,13 +1644,13 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C52" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="D52">
-        <v>2279</v>
+        <v>2226</v>
       </c>
       <c r="E52">
         <v>2</v>
@@ -1670,16 +1664,16 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C53" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="D53">
-        <v>2226</v>
+        <v>2295</v>
       </c>
       <c r="E53">
-        <v>2</v>
+        <v>293</v>
       </c>
       <c r="F53" t="s">
         <v>9</v>
@@ -1690,19 +1684,19 @@
         <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C54" t="s">
         <v>64</v>
       </c>
       <c r="D54">
-        <v>2295</v>
+        <v>2299</v>
       </c>
       <c r="E54">
-        <v>311</v>
+        <v>1312</v>
       </c>
       <c r="F54" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1710,16 +1704,16 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C55" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D55">
-        <v>2299</v>
+        <v>2214</v>
       </c>
       <c r="E55">
-        <v>1407</v>
+        <v>1</v>
       </c>
       <c r="F55" t="s">
         <v>9</v>
@@ -1730,10 +1724,10 @@
         <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C56" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D56">
         <v>2263</v>
@@ -1742,7 +1736,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1750,16 +1744,16 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C57" t="s">
         <v>68</v>
       </c>
       <c r="D57">
-        <v>2214</v>
+        <v>2180</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F57" t="s">
         <v>9</v>
@@ -1770,16 +1764,16 @@
         <v>6</v>
       </c>
       <c r="B58" t="s">
+        <v>67</v>
+      </c>
+      <c r="C58" t="s">
         <v>69</v>
       </c>
-      <c r="C58" t="s">
-        <v>70</v>
-      </c>
       <c r="D58">
-        <v>2180</v>
+        <v>2237</v>
       </c>
       <c r="E58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F58" t="s">
         <v>9</v>
@@ -1790,16 +1784,16 @@
         <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C59" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D59">
-        <v>2237</v>
+        <v>2253</v>
       </c>
       <c r="E59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F59" t="s">
         <v>9</v>
@@ -1810,16 +1804,16 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C60" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D60">
-        <v>2253</v>
+        <v>2309</v>
       </c>
       <c r="E60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F60" t="s">
         <v>9</v>
@@ -1830,16 +1824,16 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C61" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D61">
         <v>2286</v>
       </c>
       <c r="E61">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F61" t="s">
         <v>9</v>
@@ -1850,16 +1844,16 @@
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C62" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D62">
-        <v>2309</v>
+        <v>2222</v>
       </c>
       <c r="E62">
-        <v>3</v>
+        <v>28738</v>
       </c>
       <c r="F62" t="s">
         <v>9</v>
@@ -1870,16 +1864,16 @@
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C63" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D63">
-        <v>2222</v>
+        <v>2162</v>
       </c>
       <c r="E63">
-        <v>29069</v>
+        <v>2</v>
       </c>
       <c r="F63" t="s">
         <v>9</v>
@@ -1890,16 +1884,16 @@
         <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D64">
-        <v>2162</v>
+        <v>2272</v>
       </c>
       <c r="E64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F64" t="s">
         <v>9</v>
@@ -1910,16 +1904,16 @@
         <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C65" t="s">
         <v>77</v>
       </c>
       <c r="D65">
-        <v>2272</v>
+        <v>2204</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F65" t="s">
         <v>9</v>
@@ -1930,13 +1924,13 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
+        <v>76</v>
+      </c>
+      <c r="C66" t="s">
         <v>78</v>
       </c>
-      <c r="C66" t="s">
-        <v>79</v>
-      </c>
       <c r="D66">
-        <v>2204</v>
+        <v>2268</v>
       </c>
       <c r="E66">
         <v>2</v>
@@ -1950,16 +1944,16 @@
         <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C67" t="s">
         <v>80</v>
       </c>
       <c r="D67">
-        <v>2268</v>
+        <v>2090</v>
       </c>
       <c r="E67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F67" t="s">
         <v>9</v>
@@ -1970,16 +1964,16 @@
         <v>6</v>
       </c>
       <c r="B68" t="s">
+        <v>79</v>
+      </c>
+      <c r="C68" t="s">
         <v>81</v>
       </c>
-      <c r="C68" t="s">
-        <v>82</v>
-      </c>
       <c r="D68">
-        <v>2090</v>
+        <v>2258</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F68" t="s">
         <v>9</v>
@@ -1990,16 +1984,16 @@
         <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C69" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D69">
-        <v>2258</v>
+        <v>2213</v>
       </c>
       <c r="E69">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="F69" t="s">
         <v>9</v>
@@ -2010,16 +2004,16 @@
         <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C70" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D70">
-        <v>2213</v>
+        <v>2294</v>
       </c>
       <c r="E70">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="F70" t="s">
         <v>9</v>
@@ -2030,38 +2024,18 @@
         <v>6</v>
       </c>
       <c r="B71" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C71" t="s">
         <v>85</v>
       </c>
       <c r="D71">
-        <v>2294</v>
+        <v>2242</v>
       </c>
       <c r="E71">
         <v>1</v>
       </c>
       <c r="F71" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" t="s">
-        <v>6</v>
-      </c>
-      <c r="B72" t="s">
-        <v>86</v>
-      </c>
-      <c r="C72" t="s">
-        <v>87</v>
-      </c>
-      <c r="D72">
-        <v>2242</v>
-      </c>
-      <c r="E72">
-        <v>1</v>
-      </c>
-      <c r="F72" t="s">
         <v>9</v>
       </c>
     </row>

--- a/scraper/top_remaining_spreadsheets_states/top_remaining_IN.xlsx
+++ b/scraper/top_remaining_spreadsheets_states/top_remaining_IN.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="84">
   <si>
     <t>STATE</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">Triple Tripler           </t>
   </si>
   <si>
-    <t>2019-03-12</t>
+    <t>2019-04-11</t>
   </si>
   <si>
     <t>WILD 1s</t>
@@ -62,22 +62,22 @@
     <t xml:space="preserve">$5,000 Jackpot           </t>
   </si>
   <si>
+    <t xml:space="preserve">Fire And Dice            </t>
+  </si>
+  <si>
+    <t>FILL'ER UP!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoosier Dreams           </t>
+  </si>
+  <si>
     <t>NEON 9s</t>
   </si>
   <si>
-    <t>FILL'ER UP!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hoosier Dreams           </t>
-  </si>
-  <si>
     <t>SET FOR LIFE</t>
   </si>
   <si>
-    <t>FESTIVE $50s</t>
-  </si>
-  <si>
-    <t>2019-02-21</t>
+    <t>2019-04-02</t>
   </si>
   <si>
     <t>$2.00 Games</t>
@@ -86,34 +86,34 @@
     <t>THE WIZARD OF OZ™</t>
   </si>
   <si>
+    <t xml:space="preserve">Bingo Frenzy             </t>
+  </si>
+  <si>
     <t xml:space="preserve">Hit 7                    </t>
   </si>
   <si>
+    <t xml:space="preserve">Mega Money               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cherry Twist             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gold Rush Doubler        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">$25,000 Jackpot          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">White Ice                </t>
+  </si>
+  <si>
     <t xml:space="preserve">$10,000 Bonus Cash       </t>
   </si>
   <si>
-    <t xml:space="preserve">$25,000 Jackpot          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bingo Frenzy             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mega Money               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cherry Twist             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gold Rush Doubler        </t>
-  </si>
-  <si>
     <t>WIN IT ALL</t>
   </si>
   <si>
-    <t xml:space="preserve">White Ice                </t>
-  </si>
-  <si>
-    <t>HOLIDAY $100s</t>
+    <t>FULL OF $200s</t>
   </si>
   <si>
     <t>$3.00 Games</t>
@@ -122,18 +122,18 @@
     <t xml:space="preserve">Crown Jewels             </t>
   </si>
   <si>
+    <t>YAHTZEE SQUARED</t>
+  </si>
+  <si>
     <t>WILD CHERRY CROSSWORD TRIPLER</t>
   </si>
   <si>
-    <t>YAHTZEE SQUARED</t>
+    <t xml:space="preserve">Lucky Lines              </t>
   </si>
   <si>
     <t>CLEOPATRA™</t>
   </si>
   <si>
-    <t xml:space="preserve">Lucky Lines              </t>
-  </si>
-  <si>
     <t>$5.00 Games</t>
   </si>
   <si>
@@ -146,48 +146,45 @@
     <t xml:space="preserve">7                        </t>
   </si>
   <si>
+    <t xml:space="preserve">Lady Luck                </t>
+  </si>
+  <si>
     <t xml:space="preserve">Gold Series              </t>
   </si>
   <si>
+    <t xml:space="preserve">$100 Grand               </t>
+  </si>
+  <si>
     <t xml:space="preserve">Stacks Of Ca$H           </t>
   </si>
   <si>
+    <t xml:space="preserve">Money Multiplier         </t>
+  </si>
+  <si>
+    <t>ELECTRIC 7s</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wild Cherry Crossword 5X </t>
   </si>
   <si>
-    <t xml:space="preserve">Lady Luck                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$100 Grand               </t>
+    <t xml:space="preserve">$5,000 Bonus             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">$200,000 Jackpot         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hit 8                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emerald Mine 9X          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Casino Riches            </t>
   </si>
   <si>
     <t xml:space="preserve">The Voice                </t>
   </si>
   <si>
-    <t xml:space="preserve">Money Multiplier         </t>
-  </si>
-  <si>
-    <t>2019-03-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$5,000 Bonus             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hit 8                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$200,000 Jackpot         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Casino Riches            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emerald Mine 9X          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$175,000 Jackpot         </t>
-  </si>
-  <si>
     <t>$10.00 Games</t>
   </si>
   <si>
@@ -200,24 +197,21 @@
     <t>$120M Cash Spectacular</t>
   </si>
   <si>
+    <t xml:space="preserve">Big Win                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loaded                   </t>
+  </si>
+  <si>
     <t xml:space="preserve">$500,000 Jackpot         </t>
   </si>
   <si>
-    <t xml:space="preserve">Big Win                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loaded                   </t>
-  </si>
-  <si>
     <t xml:space="preserve">Indiana Cash Blowout     </t>
   </si>
   <si>
     <t xml:space="preserve">Mega Crossword           </t>
   </si>
   <si>
-    <t xml:space="preserve">Golden Ticket            </t>
-  </si>
-  <si>
     <t>$20.00 Games</t>
   </si>
   <si>
@@ -227,12 +221,12 @@
     <t xml:space="preserve">Indiana's Lucky Loot     </t>
   </si>
   <si>
+    <t xml:space="preserve">$1,000,000 Jackpot       </t>
+  </si>
+  <si>
     <t xml:space="preserve">100X The Cash            </t>
   </si>
   <si>
-    <t xml:space="preserve">$1,000,000 Jackpot       </t>
-  </si>
-  <si>
     <t xml:space="preserve">Cash Money               </t>
   </si>
   <si>
@@ -248,10 +242,10 @@
     <t>$25.00 Games</t>
   </si>
   <si>
+    <t xml:space="preserve">Millionaire Series       </t>
+  </si>
+  <si>
     <t xml:space="preserve">$3,000,000 Fortune       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Millionaire Series       </t>
   </si>
   <si>
     <t>$30.00 Games</t>
@@ -611,7 +605,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -733,7 +727,7 @@
         <v>2310</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -770,10 +764,10 @@
         <v>15</v>
       </c>
       <c r="D8">
-        <v>2301</v>
+        <v>2314</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -830,7 +824,7 @@
         <v>18</v>
       </c>
       <c r="D11">
-        <v>2223</v>
+        <v>2301</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -850,10 +844,10 @@
         <v>19</v>
       </c>
       <c r="D12">
-        <v>2291</v>
+        <v>2223</v>
       </c>
       <c r="E12">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F12" t="s">
         <v>20</v>
@@ -890,10 +884,10 @@
         <v>23</v>
       </c>
       <c r="D14">
-        <v>2281</v>
+        <v>2164</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14" t="s">
         <v>9</v>
@@ -910,7 +904,7 @@
         <v>24</v>
       </c>
       <c r="D15">
-        <v>2270</v>
+        <v>2281</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -930,10 +924,10 @@
         <v>25</v>
       </c>
       <c r="D16">
-        <v>2306</v>
+        <v>2302</v>
       </c>
       <c r="E16">
-        <v>5</v>
+        <v>116</v>
       </c>
       <c r="F16" t="s">
         <v>9</v>
@@ -950,10 +944,10 @@
         <v>26</v>
       </c>
       <c r="D17">
-        <v>2164</v>
+        <v>2311</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
@@ -970,10 +964,10 @@
         <v>27</v>
       </c>
       <c r="D18">
-        <v>2302</v>
+        <v>2276</v>
       </c>
       <c r="E18">
-        <v>167</v>
+        <v>1</v>
       </c>
       <c r="F18" t="s">
         <v>9</v>
@@ -987,13 +981,13 @@
         <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D19">
-        <v>2224</v>
+        <v>2306</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19" t="s">
         <v>9</v>
@@ -1007,13 +1001,13 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D20">
-        <v>2311</v>
+        <v>2297</v>
       </c>
       <c r="E20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F20" t="s">
         <v>9</v>
@@ -1027,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D21">
-        <v>2276</v>
+        <v>2270</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
@@ -1047,7 +1041,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D22">
         <v>2285</v>
@@ -1067,16 +1061,16 @@
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D23">
-        <v>2297</v>
+        <v>2224</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1090,13 +1084,13 @@
         <v>32</v>
       </c>
       <c r="D24">
-        <v>2292</v>
+        <v>2315</v>
       </c>
       <c r="E24">
         <v>2</v>
       </c>
       <c r="F24" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1130,10 +1124,10 @@
         <v>35</v>
       </c>
       <c r="D26">
-        <v>2303</v>
+        <v>2312</v>
       </c>
       <c r="E26">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F26" t="s">
         <v>9</v>
@@ -1150,10 +1144,10 @@
         <v>36</v>
       </c>
       <c r="D27">
-        <v>2312</v>
+        <v>2303</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F27" t="s">
         <v>9</v>
@@ -1170,7 +1164,7 @@
         <v>37</v>
       </c>
       <c r="D28">
-        <v>2289</v>
+        <v>2296</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1190,7 +1184,7 @@
         <v>38</v>
       </c>
       <c r="D29">
-        <v>2296</v>
+        <v>2289</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -1270,10 +1264,10 @@
         <v>43</v>
       </c>
       <c r="D33">
-        <v>2293</v>
+        <v>2278</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33" t="s">
         <v>9</v>
@@ -1290,10 +1284,10 @@
         <v>44</v>
       </c>
       <c r="D34">
-        <v>2221</v>
+        <v>2293</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34" t="s">
         <v>9</v>
@@ -1310,10 +1304,10 @@
         <v>45</v>
       </c>
       <c r="D35">
-        <v>2298</v>
+        <v>2290</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35" t="s">
         <v>9</v>
@@ -1330,10 +1324,10 @@
         <v>46</v>
       </c>
       <c r="D36">
-        <v>2278</v>
+        <v>2221</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36" t="s">
         <v>9</v>
@@ -1350,10 +1344,10 @@
         <v>47</v>
       </c>
       <c r="D37">
-        <v>2290</v>
+        <v>2313</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37" t="s">
         <v>9</v>
@@ -1370,10 +1364,10 @@
         <v>48</v>
       </c>
       <c r="D38">
-        <v>2256</v>
+        <v>2316</v>
       </c>
       <c r="E38">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F38" t="s">
         <v>9</v>
@@ -1390,13 +1384,13 @@
         <v>49</v>
       </c>
       <c r="D39">
-        <v>2313</v>
+        <v>2298</v>
       </c>
       <c r="E39">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1407,13 +1401,13 @@
         <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D40">
         <v>2304</v>
       </c>
       <c r="E40">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F40" t="s">
         <v>9</v>
@@ -1427,13 +1421,13 @@
         <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D41">
-        <v>2282</v>
+        <v>2307</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F41" t="s">
         <v>9</v>
@@ -1447,13 +1441,13 @@
         <v>39</v>
       </c>
       <c r="C42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D42">
-        <v>2307</v>
+        <v>2282</v>
       </c>
       <c r="E42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F42" t="s">
         <v>9</v>
@@ -1467,10 +1461,10 @@
         <v>39</v>
       </c>
       <c r="C43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D43">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -1487,10 +1481,10 @@
         <v>39</v>
       </c>
       <c r="C44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D44">
-        <v>2271</v>
+        <v>2273</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -1507,16 +1501,16 @@
         <v>39</v>
       </c>
       <c r="C45" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="D45">
-        <v>2225</v>
+        <v>2256</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F45" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1527,16 +1521,16 @@
         <v>39</v>
       </c>
       <c r="C46" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="D46">
-        <v>2262</v>
+        <v>2225</v>
       </c>
       <c r="E46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F46" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1544,10 +1538,10 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" t="s">
         <v>57</v>
-      </c>
-      <c r="C47" t="s">
-        <v>58</v>
       </c>
       <c r="D47">
         <v>2252</v>
@@ -1564,10 +1558,10 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D48">
         <v>2209</v>
@@ -1584,10 +1578,10 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C49" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D49">
         <v>2027</v>
@@ -1604,16 +1598,16 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D50">
-        <v>2308</v>
+        <v>2279</v>
       </c>
       <c r="E50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F50" t="s">
         <v>9</v>
@@ -1624,16 +1618,16 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C51" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D51">
-        <v>2279</v>
+        <v>2295</v>
       </c>
       <c r="E51">
-        <v>2</v>
+        <v>187</v>
       </c>
       <c r="F51" t="s">
         <v>9</v>
@@ -1644,13 +1638,13 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C52" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="D52">
-        <v>2226</v>
+        <v>2308</v>
       </c>
       <c r="E52">
         <v>2</v>
@@ -1664,16 +1658,16 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C53" t="s">
         <v>63</v>
       </c>
       <c r="D53">
-        <v>2295</v>
+        <v>2299</v>
       </c>
       <c r="E53">
-        <v>293</v>
+        <v>833</v>
       </c>
       <c r="F53" t="s">
         <v>9</v>
@@ -1684,16 +1678,16 @@
         <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C54" t="s">
         <v>64</v>
       </c>
       <c r="D54">
-        <v>2299</v>
+        <v>2214</v>
       </c>
       <c r="E54">
-        <v>1312</v>
+        <v>1</v>
       </c>
       <c r="F54" t="s">
         <v>9</v>
@@ -1704,13 +1698,13 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D55">
-        <v>2214</v>
+        <v>2226</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -1724,19 +1718,19 @@
         <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C56" t="s">
         <v>66</v>
       </c>
       <c r="D56">
-        <v>2263</v>
+        <v>2180</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F56" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1744,16 +1738,16 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57" t="s">
         <v>67</v>
       </c>
-      <c r="C57" t="s">
-        <v>68</v>
-      </c>
       <c r="D57">
-        <v>2180</v>
+        <v>2237</v>
       </c>
       <c r="E57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F57" t="s">
         <v>9</v>
@@ -1764,13 +1758,13 @@
         <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C58" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D58">
-        <v>2237</v>
+        <v>2309</v>
       </c>
       <c r="E58">
         <v>3</v>
@@ -1784,10 +1778,10 @@
         <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C59" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D59">
         <v>2253</v>
@@ -1804,16 +1798,16 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C60" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D60">
-        <v>2309</v>
+        <v>2286</v>
       </c>
       <c r="E60">
-        <v>3</v>
+        <v>127</v>
       </c>
       <c r="F60" t="s">
         <v>9</v>
@@ -1824,16 +1818,16 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C61" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D61">
-        <v>2286</v>
+        <v>2222</v>
       </c>
       <c r="E61">
-        <v>151</v>
+        <v>27075</v>
       </c>
       <c r="F61" t="s">
         <v>9</v>
@@ -1844,16 +1838,16 @@
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D62">
-        <v>2222</v>
+        <v>2162</v>
       </c>
       <c r="E62">
-        <v>28738</v>
+        <v>2</v>
       </c>
       <c r="F62" t="s">
         <v>9</v>
@@ -1864,16 +1858,16 @@
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C63" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D63">
-        <v>2162</v>
+        <v>2272</v>
       </c>
       <c r="E63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F63" t="s">
         <v>9</v>
@@ -1884,16 +1878,16 @@
         <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C64" t="s">
         <v>75</v>
       </c>
       <c r="D64">
-        <v>2272</v>
+        <v>2268</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F64" t="s">
         <v>9</v>
@@ -1904,10 +1898,10 @@
         <v>6</v>
       </c>
       <c r="B65" t="s">
+        <v>74</v>
+      </c>
+      <c r="C65" t="s">
         <v>76</v>
-      </c>
-      <c r="C65" t="s">
-        <v>77</v>
       </c>
       <c r="D65">
         <v>2204</v>
@@ -1924,16 +1918,16 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C66" t="s">
         <v>78</v>
       </c>
       <c r="D66">
-        <v>2268</v>
+        <v>2090</v>
       </c>
       <c r="E66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F66" t="s">
         <v>9</v>
@@ -1944,16 +1938,16 @@
         <v>6</v>
       </c>
       <c r="B67" t="s">
+        <v>77</v>
+      </c>
+      <c r="C67" t="s">
         <v>79</v>
       </c>
-      <c r="C67" t="s">
-        <v>80</v>
-      </c>
       <c r="D67">
-        <v>2090</v>
+        <v>2258</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F67" t="s">
         <v>9</v>
@@ -1964,16 +1958,16 @@
         <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C68" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D68">
-        <v>2258</v>
+        <v>2213</v>
       </c>
       <c r="E68">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="F68" t="s">
         <v>9</v>
@@ -1984,16 +1978,16 @@
         <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C69" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D69">
-        <v>2213</v>
+        <v>2294</v>
       </c>
       <c r="E69">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="F69" t="s">
         <v>9</v>
@@ -2004,38 +1998,18 @@
         <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C70" t="s">
         <v>83</v>
       </c>
       <c r="D70">
-        <v>2294</v>
+        <v>2242</v>
       </c>
       <c r="E70">
         <v>1</v>
       </c>
       <c r="F70" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" t="s">
-        <v>6</v>
-      </c>
-      <c r="B71" t="s">
-        <v>84</v>
-      </c>
-      <c r="C71" t="s">
-        <v>85</v>
-      </c>
-      <c r="D71">
-        <v>2242</v>
-      </c>
-      <c r="E71">
-        <v>1</v>
-      </c>
-      <c r="F71" t="s">
         <v>9</v>
       </c>
     </row>
